--- a/config_aomi/fish3d_hall_config.xlsx
+++ b/config_aomi/fish3d_hall_config.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>20000</v>
+        <v>9999</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>20001</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="2">
         <v>999999</v>

--- a/config_aomi/fish3d_hall_config.xlsx
+++ b/config_aomi/fish3d_hall_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>sceneID|场景ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -94,43 +94,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>神秘海域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvevl|等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底两万里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螃蟹大作战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂激光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>试炼场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神秘海域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底宝藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>藏宝海湾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_Fishing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvevl|等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底两万里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螃蟹大作战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂激光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -634,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -648,8 +644,8 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
         <v>60000</v>
       </c>
       <c r="J2" s="2">
@@ -659,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -673,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>27</v>
@@ -688,19 +684,19 @@
         <v>2</v>
       </c>
       <c r="H3" s="10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I3" s="10">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>999999</v>
+        <v>499999</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>14</v>
@@ -714,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>27</v>
@@ -737,11 +733,11 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
-        <v>1000000</v>
+      <c r="K4" s="10">
+        <v>500000</v>
       </c>
       <c r="L4" s="2">
-        <v>9999999</v>
+        <v>5999999</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>15</v>
@@ -755,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4">
         <v>27</v>
@@ -779,7 +775,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>10000000</v>
+        <v>6000000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>59999999</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>16</v>
@@ -793,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
         <v>27</v>
@@ -815,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>17</v>
@@ -829,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>27</v>
@@ -844,14 +843,17 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>10000000</v>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5999999</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>16</v>
@@ -865,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4">
         <v>27</v>
@@ -880,13 +882,16 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>50000000</v>
+        <v>6000000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9999999</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>17</v>
@@ -900,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
@@ -914,14 +919,14 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="4">
-        <v>5000000</v>
+      <c r="H9" s="2">
+        <v>2000000</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>17</v>

--- a/config_aomi/fish3d_hall_config.xlsx
+++ b/config_aomi/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="L3" s="2">
         <v>499999</v>

--- a/config_aomi/fish3d_hall_config.xlsx
+++ b/config_aomi/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>499999</v>
